--- a/biology/Zoologie/Amurinocellia/Amurinocellia.xlsx
+++ b/biology/Zoologie/Amurinocellia/Amurinocellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amurinocellia est un genre d'insectes raphidioptères de la famille des Inocelliidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été créé en 1973 par le couple d'entomologistes autrichiens Horst (d) et Ulrike Aspöck (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé en 1973 par le couple d'entomologistes autrichiens Horst (d) et Ulrike Aspöck (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amurinocellia australis et Amurinocellia sinica se rencontrent en Chine[2],[3], tandis que Amurinocellia calida est répandue dans également en Chine mais aussi dans l'est de la Russie (Khabarovsk notamment) et dans toute la péninsule coréenne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amurinocellia australis et Amurinocellia sinica se rencontrent en Chine tandis que Amurinocellia calida est répandue dans également en Chine mais aussi dans l'est de la Russie (Khabarovsk notamment) et dans toute la péninsule coréenne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 juin 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 juin 2022) :
 Amurinocellia australis X.-y.Liu et al., 2009
 Amurinocellia calida H.Aspöck &amp; U.Aspöck, 1973
 Amurinocellia sinica X.-y.Liu et al., 2009</t>
